--- a/Participantes.xlsx
+++ b/Participantes.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\CEPSUNI\CEPSUNI-DISBD-63947\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\CEPSUNI\CEPSUNI-DISBD-63947-SABADOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4B62B5-D96E-48F9-A544-160B5D1CA456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157C924C-B74C-44A1-8D75-AB151287B7C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{1CA446C2-A3A2-4B6F-A9D0-CC57EC0BC7FB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Participantes" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Participantes!$A$1:$E$22</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
   <si>
     <t>PARTICIPANTE</t>
   </si>
@@ -181,6 +184,15 @@
   </si>
   <si>
     <t>CLINICA</t>
+  </si>
+  <si>
+    <t>GPO</t>
+  </si>
+  <si>
+    <t>CROVETTO VILLA MAX JAVIER</t>
+  </si>
+  <si>
+    <t>LLANOS NUÑEZ VALERIA TIFFANY</t>
   </si>
 </sst>
 </file>
@@ -252,7 +264,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -262,6 +274,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -578,295 +596,374 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A38AC89-1C8D-4BCC-9E0B-197EBD3EE2DA}">
-  <dimension ref="A1:D136"/>
+  <dimension ref="A1:E138"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="44.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="4">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+    <row r="11" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="4">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+    <row r="12" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="B12" s="4">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="4">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B14" s="4">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+    <row r="15" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B15" s="4">
+        <v>3</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+    <row r="16" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B16" s="4">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+    <row r="17" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B17" s="4">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+    <row r="18" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B18" s="4">
+        <v>4</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+    <row r="19" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B19" s="4">
+        <v>3</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+    <row r="20" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B20" s="4">
+        <v>4</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+    <row r="21" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B21" s="4">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+    <row r="22" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B22" s="4">
+        <v>5</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="34" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -971,7 +1068,13 @@
     <row r="134" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="135" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="136" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <autoFilter ref="A1:E22" xr:uid="{2A38AC89-1C8D-4BCC-9E0B-197EBD3EE2DA}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E22">
+    <sortCondition ref="A2:A22"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>